--- a/biology/Botanique/Patata_Naxou/Patata_Naxou.xlsx
+++ b/biology/Botanique/Patata_Naxou/Patata_Naxou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Patata Naxou ou Πατάτα Νάξου (pomme de terre de Naxos) est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre de l'île de Naxos (région de l'Égée-Méridionale) en Grèce. Cette production a fait l'objet d'une demande d'enregistrement comme indication géographique protégée (IGP) au niveau européen le 26 mars 2002[1] et a été officiellement enregistrée le 29 novembre 2011[2]. 
+Patata Naxou ou Πατάτα Νάξου (pomme de terre de Naxos) est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre de l'île de Naxos (région de l'Égée-Méridionale) en Grèce. Cette production a fait l'objet d'une demande d'enregistrement comme indication géographique protégée (IGP) au niveau européen le 26 mars 2002 et a été officiellement enregistrée le 29 novembre 2011. 
 Les principales variétés cultivées sont la 'Liseta', la 'Spunta', la 'Marfona', la 'Vivaldi' et l’'Alaska'. Il s'agit soit d'une culture de printemps, soit d'une culture d'automne. 
 L'aire géographique de production est limitée à l'île de Naxos, la plus grande de l'archipel des Cyclades.
 </t>
